--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Lgi3-Flot1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Lgi3-Flot1.xlsx
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.88831466666667</v>
+        <v>9.409854000000001</v>
       </c>
       <c r="N2">
-        <v>35.664944</v>
+        <v>28.229562</v>
       </c>
       <c r="O2">
-        <v>0.1647867559347935</v>
+        <v>0.151097812489362</v>
       </c>
       <c r="P2">
-        <v>0.1715303447251207</v>
+        <v>0.1551735891706745</v>
       </c>
       <c r="Q2">
-        <v>19.105282521472</v>
+        <v>15.122237608656</v>
       </c>
       <c r="R2">
-        <v>171.947542693248</v>
+        <v>136.100138477904</v>
       </c>
       <c r="S2">
-        <v>0.1647867559347935</v>
+        <v>0.151097812489362</v>
       </c>
       <c r="T2">
-        <v>0.1715303447251207</v>
+        <v>0.1551735891706745</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,10 +626,10 @@
         <v>52.579004</v>
       </c>
       <c r="O3">
-        <v>0.2429366915434532</v>
+        <v>0.2814274088726355</v>
       </c>
       <c r="P3">
-        <v>0.2528784198125617</v>
+        <v>0.2890187515378117</v>
       </c>
       <c r="Q3">
         <v>28.165941494752</v>
@@ -638,10 +638,10 @@
         <v>253.493473452768</v>
       </c>
       <c r="S3">
-        <v>0.2429366915434532</v>
+        <v>0.2814274088726355</v>
       </c>
       <c r="T3">
-        <v>0.2528784198125617</v>
+        <v>0.2890187515378117</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.957045</v>
+        <v>16.72420333333333</v>
       </c>
       <c r="N4">
-        <v>41.871135</v>
+        <v>50.17260999999999</v>
       </c>
       <c r="O4">
-        <v>0.1934619189071989</v>
+        <v>0.2685472632512643</v>
       </c>
       <c r="P4">
-        <v>0.2013789849377604</v>
+        <v>0.275791171388365</v>
       </c>
       <c r="Q4">
-        <v>22.42986456588</v>
+        <v>26.87686510568</v>
       </c>
       <c r="R4">
-        <v>201.86878109292</v>
+        <v>241.8917859511199</v>
       </c>
       <c r="S4">
-        <v>0.1934619189071989</v>
+        <v>0.2685472632512643</v>
       </c>
       <c r="T4">
-        <v>0.2013789849377604</v>
+        <v>0.275791171388365</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.508820500000001</v>
+        <v>4.907254</v>
       </c>
       <c r="N5">
-        <v>17.017641</v>
+        <v>9.814508</v>
       </c>
       <c r="O5">
-        <v>0.1179427838462161</v>
+        <v>0.07879775230621766</v>
       </c>
       <c r="P5">
-        <v>0.08184624731608577</v>
+        <v>0.05394885093521105</v>
       </c>
       <c r="Q5">
-        <v>13.674219108012</v>
+        <v>7.886271242256</v>
       </c>
       <c r="R5">
-        <v>82.04531464807201</v>
+        <v>47.317627453536</v>
       </c>
       <c r="S5">
-        <v>0.1179427838462161</v>
+        <v>0.07879775230621766</v>
       </c>
       <c r="T5">
-        <v>0.08184624731608577</v>
+        <v>0.05394885093521105</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>20.26311466666666</v>
+        <v>13.70892733333334</v>
       </c>
       <c r="N6">
-        <v>60.78934399999999</v>
+        <v>41.12678200000001</v>
       </c>
       <c r="O6">
-        <v>0.2808718497683384</v>
+        <v>0.2201297630805206</v>
       </c>
       <c r="P6">
-        <v>0.2923660032084713</v>
+        <v>0.2260676369679378</v>
       </c>
       <c r="Q6">
-        <v>32.564122108672</v>
+        <v>22.03112359601601</v>
       </c>
       <c r="R6">
-        <v>293.077098978048</v>
+        <v>198.280112364144</v>
       </c>
       <c r="S6">
-        <v>0.2808718497683384</v>
+        <v>0.2201297630805206</v>
       </c>
       <c r="T6">
-        <v>0.2923660032084713</v>
+        <v>0.2260676369679378</v>
       </c>
     </row>
   </sheetData>
